--- a/data/predictions/feature_importance/draft_class_2019_feature_importance_ws_mean.xlsx
+++ b/data/predictions/feature_importance/draft_class_2019_feature_importance_ws_mean.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
-    <t>Data Column</t>
+    <t>Feature</t>
   </si>
   <si>
     <t>Feature Importance</t>
@@ -31,6 +31,9 @@
     <t>pts (dev) (game)</t>
   </si>
   <si>
+    <t>tbr (game) (normalized)</t>
+  </si>
+  <si>
     <t>ft% (game)</t>
   </si>
   <si>
@@ -43,13 +46,76 @@
     <t>n_seasons (game)</t>
   </si>
   <si>
-    <t>tbr (game) (normalized)</t>
+    <t>per (advanced)</t>
+  </si>
+  <si>
+    <t>fg% (game)</t>
+  </si>
+  <si>
+    <t>2p% (game)</t>
+  </si>
+  <si>
+    <t>orb (game)</t>
+  </si>
+  <si>
+    <t>drb (game)</t>
+  </si>
+  <si>
+    <t>strength_of_schedule (game)</t>
+  </si>
+  <si>
+    <t>ast (prop) (game)</t>
+  </si>
+  <si>
+    <t>stl (prop) (game)</t>
+  </si>
+  <si>
+    <t>tov (prop) (game)</t>
+  </si>
+  <si>
+    <t>ts% (advanced)</t>
+  </si>
+  <si>
+    <t>efg% (advanced)</t>
+  </si>
+  <si>
+    <t>ts% (dev) (advanced)</t>
+  </si>
+  <si>
+    <t>efg% (dev) (advanced)</t>
+  </si>
+  <si>
+    <t>ast (game) (normalized)</t>
+  </si>
+  <si>
+    <t>school_cat</t>
+  </si>
+  <si>
+    <t>heigth_cm</t>
+  </si>
+  <si>
+    <t>games_started</t>
   </si>
   <si>
     <t>mp (game)</t>
   </si>
   <si>
-    <t>2p% (game)</t>
+    <t>fg (game)</t>
+  </si>
+  <si>
+    <t>fga (game)</t>
+  </si>
+  <si>
+    <t>2p (game)</t>
+  </si>
+  <si>
+    <t>2pa (game)</t>
+  </si>
+  <si>
+    <t>3p (game)</t>
+  </si>
+  <si>
+    <t>3pa (game)</t>
   </si>
   <si>
     <t>3p% (game)</t>
@@ -58,121 +124,55 @@
     <t>ft (game)</t>
   </si>
   <si>
-    <t>drb (game)</t>
-  </si>
-  <si>
-    <t>strength_of_schedule (game)</t>
-  </si>
-  <si>
-    <t>stl (prop) (game)</t>
-  </si>
-  <si>
-    <t>tov (prop) (game)</t>
-  </si>
-  <si>
-    <t>per (advanced)</t>
-  </si>
-  <si>
-    <t>ts% (advanced)</t>
-  </si>
-  <si>
-    <t>efg% (advanced)</t>
+    <t>fta (game)</t>
+  </si>
+  <si>
+    <t>ast (game)</t>
+  </si>
+  <si>
+    <t>blk (game)</t>
+  </si>
+  <si>
+    <t>tov (game)</t>
+  </si>
+  <si>
+    <t>pf (game)</t>
+  </si>
+  <si>
+    <t>pts (game)</t>
+  </si>
+  <si>
+    <t>pts (prop) (game)</t>
+  </si>
+  <si>
+    <t>tbr (prop) (game)</t>
+  </si>
+  <si>
+    <t>games (advanced)</t>
+  </si>
+  <si>
+    <t>3par (advanced)</t>
   </si>
   <si>
     <t>ftr (advanced)</t>
   </si>
   <si>
+    <t>trb% (advanced)</t>
+  </si>
+  <si>
+    <t>ast% (advanced)</t>
+  </si>
+  <si>
     <t>blk% (advanced)</t>
   </si>
   <si>
-    <t>ts% (dev) (advanced)</t>
-  </si>
-  <si>
-    <t>efg% (dev) (advanced)</t>
+    <t>tov% (advanced)</t>
+  </si>
+  <si>
+    <t>usg% (advanced)</t>
   </si>
   <si>
     <t>ws (prop) (advanced)</t>
-  </si>
-  <si>
-    <t>ast (game) (normalized)</t>
-  </si>
-  <si>
-    <t>school_cat</t>
-  </si>
-  <si>
-    <t>heigth_cm</t>
-  </si>
-  <si>
-    <t>games_started</t>
-  </si>
-  <si>
-    <t>fg (game)</t>
-  </si>
-  <si>
-    <t>fga (game)</t>
-  </si>
-  <si>
-    <t>fg% (game)</t>
-  </si>
-  <si>
-    <t>2p (game)</t>
-  </si>
-  <si>
-    <t>2pa (game)</t>
-  </si>
-  <si>
-    <t>3p (game)</t>
-  </si>
-  <si>
-    <t>3pa (game)</t>
-  </si>
-  <si>
-    <t>fta (game)</t>
-  </si>
-  <si>
-    <t>orb (game)</t>
-  </si>
-  <si>
-    <t>ast (game)</t>
-  </si>
-  <si>
-    <t>blk (game)</t>
-  </si>
-  <si>
-    <t>tov (game)</t>
-  </si>
-  <si>
-    <t>pf (game)</t>
-  </si>
-  <si>
-    <t>pts (game)</t>
-  </si>
-  <si>
-    <t>pts (prop) (game)</t>
-  </si>
-  <si>
-    <t>tbr (prop) (game)</t>
-  </si>
-  <si>
-    <t>ast (prop) (game)</t>
-  </si>
-  <si>
-    <t>games (advanced)</t>
-  </si>
-  <si>
-    <t>3par (advanced)</t>
-  </si>
-  <si>
-    <t>trb% (advanced)</t>
-  </si>
-  <si>
-    <t>ast% (advanced)</t>
-  </si>
-  <si>
-    <t>tov% (advanced)</t>
-  </si>
-  <si>
-    <t>usg% (advanced)</t>
   </si>
   <si>
     <t>pts (game) (normalized)</t>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
